--- a/data_processed/20250714/BTCUSDVOLSURFACE_REGULARIZED_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDVOLSURFACE_REGULARIZED_20250714.xlsx
@@ -12319,7 +12319,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -43529,7 +43529,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
